--- a/Datos/facturas.xlsx
+++ b/Datos/facturas.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="R2df500a466784178"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="Rfefb668bced843d8"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -56,7 +56,7 @@
     <x:t>llanta</x:t>
   </x:si>
   <x:si>
-    <x:t>Cambio de llantsa</x:t>
+    <x:t>Cambio de llantas</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -502,7 +502,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C5">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D5" t="s">
         <x:v>13</x:v>
@@ -514,7 +514,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="G5">
-        <x:v>121</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
